--- a/results/CIFAR10/simplecnn/noise_0.0/SR-Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR10/simplecnn/noise_0.0/SR-Adam/runs_and_aggregate.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +487,7 @@
         <v>47.47</v>
       </c>
       <c r="F2" t="n">
-        <v>31.19512104988098</v>
+        <v>27.16937875747681</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>56.12</v>
       </c>
       <c r="F3" t="n">
-        <v>31.13782262802124</v>
+        <v>26.72026777267456</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>60.8</v>
       </c>
       <c r="F4" t="n">
-        <v>31.19063234329224</v>
+        <v>26.70567917823792</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>64.84</v>
       </c>
       <c r="F5" t="n">
-        <v>31.27080416679382</v>
+        <v>26.76639604568481</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>66.91</v>
       </c>
       <c r="F6" t="n">
-        <v>31.27864122390747</v>
+        <v>26.73976349830627</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>68.23</v>
       </c>
       <c r="F7" t="n">
-        <v>31.48202800750732</v>
+        <v>26.7776243686676</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>69.12</v>
       </c>
       <c r="F8" t="n">
-        <v>31.44464206695557</v>
+        <v>26.66259741783142</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>70.41</v>
       </c>
       <c r="F9" t="n">
-        <v>31.1795506477356</v>
+        <v>26.97221636772156</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>71.81999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>31.20416855812073</v>
+        <v>26.62291574478149</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61249470710754</v>
+        <v>26.94012475013733</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>72.28</v>
       </c>
       <c r="F12" t="n">
-        <v>31.42925930023193</v>
+        <v>26.57977604866028</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>73.56999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>31.36245679855347</v>
+        <v>26.67786335945129</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>73.84999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>31.23169350624084</v>
+        <v>26.7407374382019</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>74.18000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>31.19759058952332</v>
+        <v>26.71946358680725</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>74.62</v>
       </c>
       <c r="F16" t="n">
-        <v>31.41006374359131</v>
+        <v>26.66970825195312</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>74.98999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>31.23934984207153</v>
+        <v>26.83515858650208</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>75.15000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>31.26733183860779</v>
+        <v>26.61966824531555</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>74.76000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>31.38140130043029</v>
+        <v>26.75222730636597</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>75.70999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35470747947693</v>
+        <v>26.7217960357666</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>75.39</v>
       </c>
       <c r="F21" t="n">
-        <v>31.39222979545593</v>
+        <v>26.78909873962402</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>44.97</v>
       </c>
       <c r="F2" t="n">
-        <v>31.40738940238953</v>
+        <v>26.8798987865448</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>55.35</v>
       </c>
       <c r="F3" t="n">
-        <v>31.3443169593811</v>
+        <v>26.75906491279602</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>60.02</v>
       </c>
       <c r="F4" t="n">
-        <v>31.2383816242218</v>
+        <v>26.79637861251831</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>63.63</v>
       </c>
       <c r="F5" t="n">
-        <v>31.10937070846558</v>
+        <v>26.56688904762268</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>31.16095423698425</v>
+        <v>26.82339334487915</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>68.33</v>
       </c>
       <c r="F7" t="n">
-        <v>31.27187466621399</v>
+        <v>26.70717406272888</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>70.04000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>31.11488819122314</v>
+        <v>26.60329842567444</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>71.25</v>
       </c>
       <c r="F9" t="n">
-        <v>31.40275287628174</v>
+        <v>26.64246559143066</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>31.14489245414734</v>
+        <v>26.66719722747803</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>72.12</v>
       </c>
       <c r="F11" t="n">
-        <v>31.43909931182861</v>
+        <v>26.85017108917236</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>72.43000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>31.214022397995</v>
+        <v>26.79422760009766</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>72.98</v>
       </c>
       <c r="F13" t="n">
-        <v>31.48262333869934</v>
+        <v>26.64251446723938</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>73.5</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61107015609741</v>
+        <v>26.67646050453186</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>73.5</v>
       </c>
       <c r="F15" t="n">
-        <v>31.15432739257812</v>
+        <v>26.55833554267884</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>73.81</v>
       </c>
       <c r="F16" t="n">
-        <v>31.21342134475708</v>
+        <v>26.65101337432861</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>74.44</v>
       </c>
       <c r="F17" t="n">
-        <v>31.08282065391541</v>
+        <v>26.60952568054199</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>74.81999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>31.13864612579346</v>
+        <v>26.56052279472351</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>75.56</v>
       </c>
       <c r="F19" t="n">
-        <v>30.93695211410522</v>
+        <v>26.68291783332825</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>74.76000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>31.38643002510071</v>
+        <v>26.63772368431092</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>75.58</v>
       </c>
       <c r="F21" t="n">
-        <v>31.065514087677</v>
+        <v>26.87133479118347</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>48.17</v>
       </c>
       <c r="F2" t="n">
-        <v>31.29066491127014</v>
+        <v>26.89574003219604</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>55.25</v>
       </c>
       <c r="F3" t="n">
-        <v>31.12851238250732</v>
+        <v>26.67002391815185</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>60.79</v>
       </c>
       <c r="F4" t="n">
-        <v>31.15422177314758</v>
+        <v>26.637540102005</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>64.98</v>
       </c>
       <c r="F5" t="n">
-        <v>31.49538469314575</v>
+        <v>26.66706418991089</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>68.12</v>
       </c>
       <c r="F6" t="n">
-        <v>31.58317518234253</v>
+        <v>26.62338161468506</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>69.48999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>31.42067098617554</v>
+        <v>26.80319428443909</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>70.3</v>
       </c>
       <c r="F8" t="n">
-        <v>31.2597918510437</v>
+        <v>26.69219708442688</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>71.53</v>
       </c>
       <c r="F9" t="n">
-        <v>31.22663283348083</v>
+        <v>26.71279788017273</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>72.25</v>
       </c>
       <c r="F10" t="n">
-        <v>31.33024406433105</v>
+        <v>26.79429697990417</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>72.75</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35948371887207</v>
+        <v>26.91580033302307</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>73.43000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>31.25419664382935</v>
+        <v>26.68517470359802</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>74.05</v>
       </c>
       <c r="F13" t="n">
-        <v>31.37610840797424</v>
+        <v>26.71406579017639</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>74.28</v>
       </c>
       <c r="F14" t="n">
-        <v>31.08774876594543</v>
+        <v>26.75562930107117</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>74.41</v>
       </c>
       <c r="F15" t="n">
-        <v>31.11387968063354</v>
+        <v>26.60142612457276</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>75.43000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>31.12564444541931</v>
+        <v>26.59487366676331</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>74.2</v>
       </c>
       <c r="F17" t="n">
-        <v>31.03569388389588</v>
+        <v>26.65093779563904</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>76.45</v>
       </c>
       <c r="F18" t="n">
-        <v>30.91941475868225</v>
+        <v>26.64496350288391</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>75.75</v>
       </c>
       <c r="F19" t="n">
-        <v>31.02707982063293</v>
+        <v>26.65395545959473</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>74.91</v>
       </c>
       <c r="F20" t="n">
-        <v>30.94014668464661</v>
+        <v>26.58806443214417</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>76.25</v>
       </c>
       <c r="F21" t="n">
-        <v>31.09466576576233</v>
+        <v>26.96683692932129</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>47.75</v>
       </c>
       <c r="F2" t="n">
-        <v>31.11158919334412</v>
+        <v>26.977623462677</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>53.25</v>
       </c>
       <c r="F3" t="n">
-        <v>31.07392907142639</v>
+        <v>26.73638725280762</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>59.29</v>
       </c>
       <c r="F4" t="n">
-        <v>30.95389819145202</v>
+        <v>26.67285299301147</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>63.46</v>
       </c>
       <c r="F5" t="n">
-        <v>31.09167098999023</v>
+        <v>26.58229804039001</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>66.69</v>
       </c>
       <c r="F6" t="n">
-        <v>31.09927415847778</v>
+        <v>26.65340495109558</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>31.27360987663269</v>
+        <v>26.68390989303589</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>66.97</v>
       </c>
       <c r="F8" t="n">
-        <v>31.33626508712769</v>
+        <v>26.6735634803772</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>69.81999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>31.3296947479248</v>
+        <v>26.70522975921631</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>31.18512344360352</v>
+        <v>26.66165399551392</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>71.53</v>
       </c>
       <c r="F11" t="n">
-        <v>31.33713173866272</v>
+        <v>26.74085474014282</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>72.59</v>
       </c>
       <c r="F12" t="n">
-        <v>31.21658945083618</v>
+        <v>26.54023122787476</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>72.23999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>31.45099329948425</v>
+        <v>26.571861743927</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>73.20999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>31.18025946617126</v>
+        <v>26.45703983306885</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>73.27</v>
       </c>
       <c r="F15" t="n">
-        <v>30.94160032272339</v>
+        <v>26.59520936012268</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>74.20999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>31.06522178649902</v>
+        <v>26.47363662719727</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>74.53</v>
       </c>
       <c r="F17" t="n">
-        <v>31.62297391891479</v>
+        <v>26.7348153591156</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>74.37</v>
       </c>
       <c r="F18" t="n">
-        <v>31.315753698349</v>
+        <v>26.46002411842347</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>75.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>31.50178575515747</v>
+        <v>26.61373233795166</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>74.68000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>31.11110925674438</v>
+        <v>26.501291513443</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>75.16</v>
       </c>
       <c r="F21" t="n">
-        <v>31.12501573562622</v>
+        <v>26.89356255531311</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>46.57</v>
       </c>
       <c r="F2" t="n">
-        <v>31.18195033073425</v>
+        <v>26.80537438392639</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>54.08</v>
       </c>
       <c r="F3" t="n">
-        <v>31.31888508796692</v>
+        <v>26.61231660842896</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>58.73</v>
       </c>
       <c r="F4" t="n">
-        <v>31.26027894020081</v>
+        <v>26.70644783973694</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>63.33</v>
       </c>
       <c r="F5" t="n">
-        <v>31.37945961952209</v>
+        <v>27.66968560218811</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>66.08</v>
       </c>
       <c r="F6" t="n">
-        <v>31.2795684337616</v>
+        <v>26.59879875183105</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>31.0816581249237</v>
+        <v>26.51203632354736</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>68.5</v>
       </c>
       <c r="F8" t="n">
-        <v>31.19218850135803</v>
+        <v>26.456209897995</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>69.73999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>31.48252987861633</v>
+        <v>26.47403597831726</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>71.20999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>31.06115794181824</v>
+        <v>26.49908638000488</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>71.66</v>
       </c>
       <c r="F11" t="n">
-        <v>31.18583846092224</v>
+        <v>26.67487335205078</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>70.22</v>
       </c>
       <c r="F12" t="n">
-        <v>31.23148012161255</v>
+        <v>26.57961916923523</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>71.28</v>
       </c>
       <c r="F13" t="n">
-        <v>31.22322845458984</v>
+        <v>26.71573758125305</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>72.58</v>
       </c>
       <c r="F14" t="n">
-        <v>31.52500414848328</v>
+        <v>26.68586444854736</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>73.09</v>
       </c>
       <c r="F15" t="n">
-        <v>31.33824968338013</v>
+        <v>26.79987096786499</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>72.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>31.32815432548523</v>
+        <v>27.34831547737122</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>74.16</v>
       </c>
       <c r="F17" t="n">
-        <v>31.34758758544922</v>
+        <v>26.91782093048096</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>73.91</v>
       </c>
       <c r="F18" t="n">
-        <v>31.33257317543029</v>
+        <v>26.97077989578247</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>74.34</v>
       </c>
       <c r="F19" t="n">
-        <v>31.37302112579346</v>
+        <v>26.83722329139709</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>75.01000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>31.66835641860962</v>
+        <v>26.89557528495789</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>75.03</v>
       </c>
       <c r="F21" t="n">
-        <v>31.192453622818</v>
+        <v>27.19285130500793</v>
       </c>
     </row>
   </sheetData>
